--- a/Jobs.xlsx
+++ b/Jobs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Dropbox\JobMarketHacker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Dropbox\GitHub\jobmarkethacker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475F76D5-E610-491A-B0B2-D223E17C2893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898215B6-DF73-488A-8E74-F939ECC50716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Letter Information" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>TeachingCode</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -104,24 +101,15 @@
     <t>full</t>
   </si>
   <si>
-    <t>TeachingStatement</t>
-  </si>
-  <si>
     <t>short_with_quant</t>
   </si>
   <si>
-    <t>ResearchStatement</t>
-  </si>
-  <si>
     <t>econ_general</t>
   </si>
   <si>
     <t>Rolling</t>
   </si>
   <si>
-    <t>DiversityStatement</t>
-  </si>
-  <si>
     <t>standard</t>
   </si>
   <si>
@@ -210,6 +198,18 @@
   </si>
   <si>
     <t>the EJM website</t>
+  </si>
+  <si>
+    <t>CoverLetterCat</t>
+  </si>
+  <si>
+    <t>TeachingStatementCat</t>
+  </si>
+  <si>
+    <t>ResearchStatementCat</t>
+  </si>
+  <si>
+    <t>DiversityStatementCat</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1092,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1133,317 +1133,317 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4">
         <v>37235</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3">
         <v>43466</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4">
         <v>37235</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3">
         <v>43466</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4">
         <v>37235</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3">
         <v>43466</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="X4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4">
         <v>37235</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3">
         <v>43466</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="X5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
